--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H2">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I2">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J2">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N2">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O2">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P2">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q2">
-        <v>415.8325238930748</v>
+        <v>572.5212457793136</v>
       </c>
       <c r="R2">
-        <v>415.8325238930748</v>
+        <v>5152.691212013822</v>
       </c>
       <c r="S2">
-        <v>0.06058058340682959</v>
+        <v>0.06630068035090188</v>
       </c>
       <c r="T2">
-        <v>0.06058058340682959</v>
+        <v>0.07536109647120091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H3">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I3">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J3">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N3">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O3">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P3">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q3">
-        <v>596.9743706191701</v>
+        <v>749.2434183688102</v>
       </c>
       <c r="R3">
-        <v>596.9743706191701</v>
+        <v>6743.190765319293</v>
       </c>
       <c r="S3">
-        <v>0.08697024300180412</v>
+        <v>0.08676594755653068</v>
       </c>
       <c r="T3">
-        <v>0.08697024300180412</v>
+        <v>0.09862307459917223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H4">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I4">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J4">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N4">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O4">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P4">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q4">
-        <v>722.3366179719503</v>
+        <v>888.1155228679337</v>
       </c>
       <c r="R4">
-        <v>722.3366179719503</v>
+        <v>7993.039705811403</v>
       </c>
       <c r="S4">
-        <v>0.1052336486890791</v>
+        <v>0.1028479970488957</v>
       </c>
       <c r="T4">
-        <v>0.1052336486890791</v>
+        <v>0.1169028400078279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H5">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I5">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J5">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N5">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O5">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P5">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q5">
-        <v>473.2753267257961</v>
+        <v>659.0406147960539</v>
       </c>
       <c r="R5">
-        <v>473.2753267257961</v>
+        <v>5931.365533164485</v>
       </c>
       <c r="S5">
-        <v>0.06894914119915982</v>
+        <v>0.07632003434279157</v>
       </c>
       <c r="T5">
-        <v>0.06894914119915982</v>
+        <v>0.08674965988813182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H6">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I6">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J6">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N6">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O6">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P6">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q6">
-        <v>451.9385840845512</v>
+        <v>547.273021696166</v>
       </c>
       <c r="R6">
-        <v>451.9385840845512</v>
+        <v>3283.638130176996</v>
       </c>
       <c r="S6">
-        <v>0.06584069671024252</v>
+        <v>0.06337681604594303</v>
       </c>
       <c r="T6">
-        <v>0.06584069671024252</v>
+        <v>0.04802511148500753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H7">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J7">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N7">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O7">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P7">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q7">
-        <v>342.001003834273</v>
+        <v>432.0861979029281</v>
       </c>
       <c r="R7">
-        <v>342.001003834273</v>
+        <v>3888.775781126354</v>
       </c>
       <c r="S7">
-        <v>0.0498244344719152</v>
+        <v>0.05003763458979336</v>
       </c>
       <c r="T7">
-        <v>0.0498244344719152</v>
+        <v>0.0568756004848572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H8">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J8">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N8">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O8">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P8">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q8">
-        <v>490.9809172781004</v>
+        <v>565.4597839528236</v>
       </c>
       <c r="R8">
-        <v>490.9809172781004</v>
+        <v>5089.138055575413</v>
       </c>
       <c r="S8">
-        <v>0.07152858110246293</v>
+        <v>0.06548292952188083</v>
       </c>
       <c r="T8">
-        <v>0.07152858110246293</v>
+        <v>0.07443159471059911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H9">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J9">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N9">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O9">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P9">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q9">
-        <v>594.0849603100872</v>
+        <v>670.2676318190215</v>
       </c>
       <c r="R9">
-        <v>594.0849603100872</v>
+        <v>6032.408686371194</v>
       </c>
       <c r="S9">
-        <v>0.08654929910692262</v>
+        <v>0.07762017625441739</v>
       </c>
       <c r="T9">
-        <v>0.08654929910692262</v>
+        <v>0.08822747458791644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H10">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J10">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N10">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O10">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P10">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q10">
-        <v>389.2447741096746</v>
+        <v>497.3830326998919</v>
       </c>
       <c r="R10">
-        <v>389.2447741096746</v>
+        <v>4476.447294299027</v>
       </c>
       <c r="S10">
-        <v>0.05670714566253385</v>
+        <v>0.05759931828924494</v>
       </c>
       <c r="T10">
-        <v>0.05670714566253385</v>
+        <v>0.06547063709297438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H11">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J11">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N11">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O11">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P11">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q11">
-        <v>371.6963934935022</v>
+        <v>413.0311685423346</v>
       </c>
       <c r="R11">
-        <v>371.6963934935022</v>
+        <v>2478.187011254008</v>
       </c>
       <c r="S11">
-        <v>0.05415060889715524</v>
+        <v>0.04783097165802028</v>
       </c>
       <c r="T11">
-        <v>0.05415060889715524</v>
+        <v>0.0362449218756502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H12">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I12">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J12">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N12">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O12">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P12">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q12">
-        <v>48.5377438726432</v>
+        <v>75.99251266507265</v>
       </c>
       <c r="R12">
-        <v>48.5377438726432</v>
+        <v>683.9326139856539</v>
       </c>
       <c r="S12">
-        <v>0.00707122380310032</v>
+        <v>0.008800294012514167</v>
       </c>
       <c r="T12">
-        <v>0.00707122380310032</v>
+        <v>0.01000291101904191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H13">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I13">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J13">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N13">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O13">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P13">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q13">
-        <v>69.68139199014735</v>
+        <v>99.44939227907932</v>
       </c>
       <c r="R13">
-        <v>69.68139199014735</v>
+        <v>895.0445305117139</v>
       </c>
       <c r="S13">
-        <v>0.01015153730603468</v>
+        <v>0.01151671211713996</v>
       </c>
       <c r="T13">
-        <v>0.01015153730603468</v>
+        <v>0.01309054519949624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H14">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I14">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J14">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N14">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O14">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P14">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q14">
-        <v>84.31420761587461</v>
+        <v>117.8823154898327</v>
       </c>
       <c r="R14">
-        <v>84.31420761587461</v>
+        <v>1060.940839408494</v>
       </c>
       <c r="S14">
-        <v>0.01228331983038353</v>
+        <v>0.01365133220109045</v>
       </c>
       <c r="T14">
-        <v>0.01228331983038353</v>
+        <v>0.015516874902669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H15">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I15">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J15">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N15">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O15">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P15">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q15">
-        <v>55.2427125583978</v>
+        <v>87.47649565129198</v>
       </c>
       <c r="R15">
-        <v>55.2427125583978</v>
+        <v>787.2884608616279</v>
       </c>
       <c r="S15">
-        <v>0.008048037523452754</v>
+        <v>0.01013019380354832</v>
       </c>
       <c r="T15">
-        <v>0.008048037523452754</v>
+        <v>0.01151455020462369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H16">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I16">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J16">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N16">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O16">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P16">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q16">
-        <v>52.75219705061239</v>
+        <v>72.641237926268</v>
       </c>
       <c r="R16">
-        <v>52.75219705061239</v>
+        <v>435.847427557608</v>
       </c>
       <c r="S16">
-        <v>0.007685206638958996</v>
+        <v>0.00841220047561303</v>
       </c>
       <c r="T16">
-        <v>0.007685206638958996</v>
+        <v>0.00637452132941933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H17">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I17">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J17">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N17">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O17">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P17">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q17">
-        <v>47.11607335874548</v>
+        <v>60.08220926939022</v>
       </c>
       <c r="R17">
-        <v>47.11607335874548</v>
+        <v>540.739883424512</v>
       </c>
       <c r="S17">
-        <v>0.006864107658509482</v>
+        <v>0.006957805288297246</v>
       </c>
       <c r="T17">
-        <v>0.006864107658509482</v>
+        <v>0.007908634312408951</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H18">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I18">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J18">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N18">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O18">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P18">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q18">
-        <v>67.64042402468787</v>
+        <v>78.62799885246577</v>
       </c>
       <c r="R18">
-        <v>67.64042402468787</v>
+        <v>707.651989672192</v>
       </c>
       <c r="S18">
-        <v>0.009854198779205124</v>
+        <v>0.009105495834398909</v>
       </c>
       <c r="T18">
-        <v>0.009854198779205124</v>
+        <v>0.01034982064079105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H19">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I19">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J19">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N19">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O19">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P19">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q19">
-        <v>81.84464448198327</v>
+        <v>93.20168132400356</v>
       </c>
       <c r="R19">
-        <v>81.84464448198327</v>
+        <v>838.8151319160321</v>
       </c>
       <c r="S19">
-        <v>0.01192354139359727</v>
+        <v>0.01079319750521764</v>
       </c>
       <c r="T19">
-        <v>0.01192354139359727</v>
+        <v>0.01226815764360956</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H20">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I20">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J20">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N20">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O20">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P20">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q20">
-        <v>53.62465351226511</v>
+        <v>69.161828363776</v>
       </c>
       <c r="R20">
-        <v>53.62465351226511</v>
+        <v>622.4564552739839</v>
       </c>
       <c r="S20">
-        <v>0.007812310505075949</v>
+        <v>0.008009268317351123</v>
       </c>
       <c r="T20">
-        <v>0.007812310505075949</v>
+        <v>0.009103786554422897</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H21">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I21">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J21">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N21">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O21">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P21">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q21">
-        <v>51.20708520349072</v>
+        <v>57.43257994257067</v>
       </c>
       <c r="R21">
-        <v>51.20708520349072</v>
+        <v>344.595479655424</v>
       </c>
       <c r="S21">
-        <v>0.007460106937158125</v>
+        <v>0.00665096562367185</v>
       </c>
       <c r="T21">
-        <v>0.007460106937158125</v>
+        <v>0.005039908684087956</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H22">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I22">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J22">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N22">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O22">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P22">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q22">
-        <v>219.4230877959772</v>
+        <v>306.49841801006</v>
       </c>
       <c r="R22">
-        <v>219.4230877959772</v>
+        <v>1838.99050806036</v>
       </c>
       <c r="S22">
-        <v>0.03196666424059299</v>
+        <v>0.03549397300161527</v>
       </c>
       <c r="T22">
-        <v>0.03196666424059299</v>
+        <v>0.0268963024146357</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H23">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I23">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J23">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N23">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O23">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P23">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q23">
-        <v>315.0065283734288</v>
+        <v>401.1063766234599</v>
       </c>
       <c r="R23">
-        <v>315.0065283734288</v>
+        <v>2406.63825974076</v>
       </c>
       <c r="S23">
-        <v>0.04589174287562296</v>
+        <v>0.04645002409826966</v>
       </c>
       <c r="T23">
-        <v>0.04589174287562296</v>
+        <v>0.03519847990128696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H24">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I24">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J24">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N24">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O24">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P24">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q24">
-        <v>381.1566484979027</v>
+        <v>475.45135621766</v>
       </c>
       <c r="R24">
-        <v>381.1566484979027</v>
+        <v>2852.70813730596</v>
       </c>
       <c r="S24">
-        <v>0.05552882665169367</v>
+        <v>0.05505952595362854</v>
       </c>
       <c r="T24">
-        <v>0.05552882665169367</v>
+        <v>0.04172251048897467</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H25">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I25">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J25">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N25">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O25">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P25">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q25">
-        <v>249.7340337778076</v>
+        <v>352.81643664492</v>
       </c>
       <c r="R25">
-        <v>249.7340337778076</v>
+        <v>2116.89861986952</v>
       </c>
       <c r="S25">
-        <v>0.03638251602149974</v>
+        <v>0.04085781961977326</v>
       </c>
       <c r="T25">
-        <v>0.03638251602149974</v>
+        <v>0.03096086967908742</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H26">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I26">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J26">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N26">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O26">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P26">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q26">
-        <v>238.4752368226807</v>
+        <v>292.98181789068</v>
       </c>
       <c r="R26">
-        <v>238.4752368226807</v>
+        <v>1171.92727156272</v>
       </c>
       <c r="S26">
-        <v>0.03474227758700922</v>
+        <v>0.03392868648945078</v>
       </c>
       <c r="T26">
-        <v>0.03474227758700922</v>
+        <v>0.01714011582210692</v>
       </c>
     </row>
   </sheetData>
